--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="V_limits_con" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Slack_con" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="P_bal_con" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q_bal_con" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="P_gen_min_con" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="P_gen_max_con" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Q_gen_min_con" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Q_gen_max_con" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="I_loading_con" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="P_bal_con" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Q_bal_con" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="V_limits_con" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Slack_con" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="I_loading_con" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,430 +461,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.690910443294938</v>
+        <v>-2.276431387559425e-09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.488683584140906e-09</v>
+        <v>0.4790678338938339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.807541417270247e-09</v>
+        <v>2.790628018096268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.308923446596083e-08</v>
+        <v>4.028675825556655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.782678269573788e-08</v>
+        <v>5.271861022101691</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.379494553329918e-08</v>
+        <v>7.975315102581217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.798205547482544e-08</v>
+        <v>8.341469393347426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4.484073338081586e-08</v>
+        <v>9.34420392920468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.628303721485875e-08</v>
+        <v>10.5122391526875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.101255690474226e-08</v>
+        <v>11.60848897814809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.368230110532854e-08</v>
+        <v>11.7922412316576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.873306547980695e-08</v>
+        <v>12.11511060597904</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.066576572494854e-07</v>
+        <v>13.27788026968276</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.216097672467892e-07</v>
+        <v>13.66725859148694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>1.329053178813462e-07</v>
+        <v>13.95520791412834</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1.457603353551402e-07</v>
+        <v>14.23625508789319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1.694928960311449e-07</v>
+        <v>14.59956747212635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1.780204337819871e-07</v>
+        <v>14.71922214250406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1.754322237119138e-09</v>
+        <v>0.5542640978063588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>3.563026131888008e-09</v>
+        <v>1.07484001108547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>3.922009238983513e-09</v>
+        <v>1.169982672421267</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>4.247826786180053e-09</v>
+        <v>1.252587201232621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080906015197761e-08</v>
+        <v>3.368296555492274</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47959447819265e-08</v>
+        <v>4.422464018917915</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>1.694977396797487e-08</v>
+        <v>4.955924049035927</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>3.604590642655358e-08</v>
+        <v>8.281872337949222</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>3.929864690509559e-08</v>
+        <v>8.685950621767743</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>5.923168197012682e-08</v>
+        <v>10.13842949085007</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>8.388048606271545e-08</v>
+        <v>11.17911049279805</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1.000892450024982e-07</v>
+        <v>11.72060608897054</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>1.271155604313545e-07</v>
+        <v>12.46003686595311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>1.348266630222255e-07</v>
+        <v>12.61482058077762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V_limits_con</t>
+          <t>P_bal_con</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1.373869587187282e-07</v>
+        <v>12.65387783066895</v>
       </c>
     </row>
   </sheetData>
@@ -926,175 +926,431 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Slack_con</t>
+          <t>Q_bal_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.202395073371513e-13</v>
+        <v>1.297377191638596e-09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2949188753580106</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.763111839176107</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.633030534467814</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.513256271190971</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.482743883404207</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.675226206015482</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.146109387724038</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.693084594957123</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.216948500062096</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.3065883165261</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.459238322569692</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.995477886447547</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8.167144999496989</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.264102053162825</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8.371795061787559</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8.517853948711373</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.57105771844404</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.3285628587545963</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5610009726120117</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6033620350368238</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6401102656443568</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.045015621146834</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.55000739892124</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.804535251425696</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.791770420825615</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>6.216140485205401</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>7.831481342089277</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.059031989454258</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>9.762002005349212</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.13355250246795</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10.21390254877999</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10.23994830916258</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2967,7 +3223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,7 +3239,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Lines</t>
+          <t>Index: Buses</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2995,482 +3251,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>-4.690910443294938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.505903559159053e-14</v>
+        <v>1.488683584140906e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>8.807541417270247e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.505903559158936e-14</v>
+        <v>1.308923446596083e-08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.505903559158896e-14</v>
+        <v>1.782678269573788e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>3.379494553329918e-08</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>3.798205547482544e-08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>4.484073338081586e-08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>5.628303721485875e-08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>7.101255690474226e-08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>7.368230110532854e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>7.873306547980695e-08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.066576572494854e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.216097672467892e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.329053178813462e-07</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.457603353551402e-07</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.694928960311449e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.780204337819871e-07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.754322237119138e-09</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5059035591589e-14</v>
+        <v>3.563026131888008e-09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>3.922009238983513e-09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>2.505903559159099e-14</v>
+        <v>4.247826786180053e-09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.080906015197761e-08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.47959447819265e-08</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.694977396797487e-08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>3.604590642655358e-08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>3.929864690509559e-08</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>5.923168197012682e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>8.388048606271545e-08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.000892450024982e-07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.271155604313545e-07</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>2.505903559158896e-14</v>
+        <v>1.348266630222255e-07</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>I_loading_con</t>
+          <t>V_limits_con</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2.505903559158897e-14</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>I_loading_con</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>2.505903559158897e-14</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>I_loading_con</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.505903559158897e-14</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>I_loading_con</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>2.505903559158897e-14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>I_loading_con</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>1.373869587187282e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3512,431 +3716,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P_bal_con</t>
+          <t>Slack_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.276431387559425e-09</v>
+        <v>-1.202395073371513e-13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.4790678338938339</v>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.790628018096268</v>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4.028675825556655</v>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.271861022101691</v>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.975315102581217</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.341469393347426</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.34420392920468</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>10.5122391526875</v>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.60848897814809</v>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11</v>
-      </c>
-      <c r="C12" t="n">
-        <v>11.7922412316576</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.11511060597904</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.27788026968276</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>13.66725859148694</v>
-      </c>
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.95520791412834</v>
-      </c>
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>14.23625508789319</v>
-      </c>
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>14.59956747212635</v>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14.71922214250406</v>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5542640978063588</v>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.07484001108547</v>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.169982672421267</v>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.252587201232621</v>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.368296555492274</v>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4.422464018917915</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>25</v>
-      </c>
-      <c r="C26" t="n">
-        <v>4.955924049035927</v>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>26</v>
-      </c>
-      <c r="C27" t="n">
-        <v>8.281872337949222</v>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>27</v>
-      </c>
-      <c r="C28" t="n">
-        <v>8.685950621767743</v>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>28</v>
-      </c>
-      <c r="C29" t="n">
-        <v>10.13842949085007</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>29</v>
-      </c>
-      <c r="C30" t="n">
-        <v>11.17911049279805</v>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" t="n">
-        <v>11.72060608897054</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>31</v>
-      </c>
-      <c r="C32" t="n">
-        <v>12.46003686595311</v>
-      </c>
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>32</v>
-      </c>
-      <c r="C33" t="n">
-        <v>12.61482058077762</v>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>P_bal_con</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>12.65387783066895</v>
-      </c>
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3949,7 +3897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3965,7 +3913,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Index: Buses</t>
+          <t>Index: Lines</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -3977,430 +3925,482 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.297377191638596e-09</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2949188753580106</v>
+        <v>2.505903559159053e-14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.763111839176107</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.633030534467814</v>
+        <v>2.505903559158936e-14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.513256271190971</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5.482743883404207</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.675226206015482</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6.146109387724038</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6.693084594957123</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.216948500062096</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.3065883165261</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.459238322569692</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>7.995477886447547</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>8.167144999496989</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>8.264102053162825</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>8.371795061787559</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>8.517853948711373</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>8.57105771844404</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3285628587545963</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5610009726120117</v>
+        <v>2.5059035591589e-14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6033620350368238</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6401102656443568</v>
+        <v>2.505903559159099e-14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.045015621146834</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.55000739892124</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.804535251425696</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>5.791770420825615</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>6.216140485205401</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>7.831481342089277</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.059031989454258</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.762002005349212</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>10.13355250246795</v>
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>10.21390254877999</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Q_bal_con</t>
+          <t>I_loading_con</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>10.23994830916258</v>
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.505903559158897e-14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>I_loading_con</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.505903559158897e-14</v>
       </c>
     </row>
   </sheetData>

--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.276431387559425e-09</v>
+        <v>-2.276431326042845e-09</v>
       </c>
     </row>
     <row r="3">
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4790678338938339</v>
+        <v>0.4790678370155685</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.790628018096268</v>
+        <v>2.790628020434667</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.028675825556655</v>
+        <v>4.028675827245329</v>
       </c>
     </row>
     <row r="6">
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>5.271861022101691</v>
+        <v>5.271861023869881</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>7.975315102581217</v>
+        <v>7.975315104549191</v>
       </c>
     </row>
     <row r="8">
@@ -546,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>8.341469393347426</v>
+        <v>8.341469395362882</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>9.34420392920468</v>
+        <v>9.344203931281781</v>
       </c>
     </row>
     <row r="10">
@@ -572,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>10.5122391526875</v>
+        <v>10.51223915484897</v>
       </c>
     </row>
     <row r="11">
@@ -585,7 +585,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>11.60848897814809</v>
+        <v>11.60848898038911</v>
       </c>
     </row>
     <row r="12">
@@ -598,7 +598,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7922412316576</v>
+        <v>11.79224123391021</v>
       </c>
     </row>
     <row r="13">
@@ -611,7 +611,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>12.11511060597904</v>
+        <v>12.11511060825205</v>
       </c>
     </row>
     <row r="14">
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>13.27788026968276</v>
+        <v>13.27788027204309</v>
       </c>
     </row>
     <row r="15">
@@ -637,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>13.66725859148694</v>
+        <v>13.66725859388162</v>
       </c>
     </row>
     <row r="16">
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>13.95520791412834</v>
+        <v>13.9552079165456</v>
       </c>
     </row>
     <row r="17">
@@ -663,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>14.23625508789319</v>
+        <v>14.23625509033136</v>
       </c>
     </row>
     <row r="18">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>14.59956747212635</v>
+        <v>14.59956747459681</v>
       </c>
     </row>
     <row r="19">
@@ -689,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>14.71922214250406</v>
+        <v>14.7192221449836</v>
       </c>
     </row>
     <row r="20">
@@ -702,7 +702,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5542640978063588</v>
+        <v>0.5542641009361597</v>
       </c>
     </row>
     <row r="21">
@@ -715,7 +715,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>1.07484001108547</v>
+        <v>1.074840014279624</v>
       </c>
     </row>
     <row r="22">
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>1.169982672421267</v>
+        <v>1.169982675629263</v>
       </c>
     </row>
     <row r="23">
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>1.252587201232621</v>
+        <v>1.25258720445371</v>
       </c>
     </row>
     <row r="24">
@@ -754,7 +754,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>3.368296555492274</v>
+        <v>3.36829655787319</v>
       </c>
     </row>
     <row r="25">
@@ -767,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>4.422464018917915</v>
+        <v>4.422464021378539</v>
       </c>
     </row>
     <row r="26">
@@ -780,7 +780,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>4.955924049035927</v>
+        <v>4.955924051537045</v>
       </c>
     </row>
     <row r="27">
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>8.281872337949222</v>
+        <v>8.281872339937392</v>
       </c>
     </row>
     <row r="28">
@@ -806,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>8.685950621767743</v>
+        <v>8.685950623782617</v>
       </c>
     </row>
     <row r="29">
@@ -819,7 +819,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>10.13842949085007</v>
+        <v>10.13842949297528</v>
       </c>
     </row>
     <row r="30">
@@ -832,7 +832,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>11.17911049279805</v>
+        <v>11.17911049500271</v>
       </c>
     </row>
     <row r="31">
@@ -845,7 +845,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>11.72060608897054</v>
+        <v>11.72060609121164</v>
       </c>
     </row>
     <row r="32">
@@ -858,7 +858,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>12.46003686595311</v>
+        <v>12.46003686825303</v>
       </c>
     </row>
     <row r="33">
@@ -871,7 +871,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>12.61482058077762</v>
+        <v>12.61482058309044</v>
       </c>
     </row>
     <row r="34">
@@ -884,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>12.65387783066895</v>
+        <v>12.65387783298543</v>
       </c>
     </row>
   </sheetData>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.297377191638596e-09</v>
+        <v>1.297377196713557e-09</v>
       </c>
     </row>
     <row r="3">
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2949188753580106</v>
+        <v>0.2949188763737964</v>
       </c>
     </row>
     <row r="4">
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>1.763111839176107</v>
+        <v>1.763111842040348</v>
       </c>
     </row>
     <row r="5">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.633030534467814</v>
+        <v>2.633030537389452</v>
       </c>
     </row>
     <row r="6">
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>3.513256271190971</v>
+        <v>3.513256274168573</v>
       </c>
     </row>
     <row r="7">
@@ -998,7 +998,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>5.482743883404207</v>
+        <v>5.482743886528072</v>
       </c>
     </row>
     <row r="8">
@@ -1011,7 +1011,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>5.675226206015482</v>
+        <v>5.675226209163738</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +1024,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>6.146109387724038</v>
+        <v>6.146109390901219</v>
       </c>
     </row>
     <row r="10">
@@ -1037,7 +1037,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>6.693084594957123</v>
+        <v>6.693084598173957</v>
       </c>
     </row>
     <row r="11">
@@ -1050,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.216948500062096</v>
+        <v>7.21694850331695</v>
       </c>
     </row>
     <row r="12">
@@ -1063,7 +1063,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.3065883165261</v>
+        <v>7.306588319786591</v>
       </c>
     </row>
     <row r="13">
@@ -1076,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.459238322569692</v>
+        <v>7.459238325839819</v>
       </c>
     </row>
     <row r="14">
@@ -1089,7 +1089,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>7.995477886447547</v>
+        <v>7.995477889757949</v>
       </c>
     </row>
     <row r="15">
@@ -1102,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>8.167144999496989</v>
+        <v>8.16714500282246</v>
       </c>
     </row>
     <row r="16">
@@ -1115,7 +1115,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>8.264102053162825</v>
+        <v>8.26410205649586</v>
       </c>
     </row>
     <row r="17">
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>8.371795061787559</v>
+        <v>8.371795065128532</v>
       </c>
     </row>
     <row r="18">
@@ -1141,7 +1141,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>8.517853948711373</v>
+        <v>8.517853952065163</v>
       </c>
     </row>
     <row r="19">
@@ -1154,7 +1154,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>8.57105771844404</v>
+        <v>8.571057721801818</v>
       </c>
     </row>
     <row r="20">
@@ -1167,7 +1167,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3285628587545963</v>
+        <v>0.3285628609954064</v>
       </c>
     </row>
     <row r="21">
@@ -1180,7 +1180,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5610009726120117</v>
+        <v>0.561000976214446</v>
       </c>
     </row>
     <row r="22">
@@ -1193,7 +1193,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6033620350368238</v>
+        <v>0.6033620390115496</v>
       </c>
     </row>
     <row r="23">
@@ -1206,7 +1206,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6401102656443568</v>
+        <v>0.6401102702609601</v>
       </c>
     </row>
     <row r="24">
@@ -1219,7 +1219,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.045015621146834</v>
+        <v>2.045015623585031</v>
       </c>
     </row>
     <row r="25">
@@ -1232,7 +1232,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.55000739892124</v>
+        <v>2.550007401397717</v>
       </c>
     </row>
     <row r="26">
@@ -1245,7 +1245,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.804535251425696</v>
+        <v>2.804535253921523</v>
       </c>
     </row>
     <row r="27">
@@ -1258,7 +1258,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>5.791770420825615</v>
+        <v>5.791770423969726</v>
       </c>
     </row>
     <row r="28">
@@ -1271,7 +1271,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>6.216140485205401</v>
+        <v>6.216140488377385</v>
       </c>
     </row>
     <row r="29">
@@ -1284,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>7.831481342089277</v>
+        <v>7.831481345384462</v>
       </c>
     </row>
     <row r="30">
@@ -1297,7 +1297,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>9.059031989454258</v>
+        <v>9.059031992843698</v>
       </c>
     </row>
     <row r="31">
@@ -1310,7 +1310,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>9.762002005349212</v>
+        <v>9.762002008786329</v>
       </c>
     </row>
     <row r="32">
@@ -1323,7 +1323,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>10.13355250246795</v>
+        <v>10.13355250593494</v>
       </c>
     </row>
     <row r="33">
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>10.21390254877999</v>
+        <v>10.21390255225376</v>
       </c>
     </row>
     <row r="34">
@@ -1349,7 +1349,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>10.23994830916258</v>
+        <v>10.23994831263875</v>
       </c>
     </row>
   </sheetData>
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6.396381804562851e-09</v>
+        <v>6.396381761084386e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1411,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1548847667313608</v>
+        <v>0.08749923668019828</v>
       </c>
     </row>
     <row r="4">
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1309094560892268</v>
+        <v>0.1309094559805893</v>
       </c>
     </row>
     <row r="5">
@@ -1437,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1291881248741792</v>
+        <v>0.1586456460025963</v>
       </c>
     </row>
     <row r="6">
@@ -1450,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1282713611371582</v>
+        <v>0.1282713611342989</v>
       </c>
     </row>
     <row r="7">
@@ -1463,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1272631264102358</v>
+        <v>0.1272631264097487</v>
       </c>
     </row>
     <row r="8">
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.127176781866071</v>
+        <v>0.1271767818658405</v>
       </c>
     </row>
     <row r="9">
@@ -1489,7 +1489,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1269749422674755</v>
+        <v>0.1269749422670996</v>
       </c>
     </row>
     <row r="10">
@@ -1502,7 +1502,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1267883567268984</v>
+        <v>0.1267883567265913</v>
       </c>
     </row>
     <row r="11">
@@ -1515,7 +1515,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1266473826678162</v>
+        <v>0.1266473826675557</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1266263167715251</v>
+        <v>0.1266263167712709</v>
       </c>
     </row>
     <row r="13">
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1265908494286789</v>
+        <v>0.1265908494284448</v>
       </c>
     </row>
     <row r="14">
@@ -1554,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1264774061441808</v>
+        <v>0.1264774061439699</v>
       </c>
     </row>
     <row r="15">
@@ -1567,7 +1567,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1264437303691099</v>
+        <v>0.1264437303689153</v>
       </c>
     </row>
     <row r="16">
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1264200351999279</v>
+        <v>0.1264200351997325</v>
       </c>
     </row>
     <row r="17">
@@ -1593,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1263978321358566</v>
+        <v>0.1263978321356778</v>
       </c>
     </row>
     <row r="18">
@@ -1606,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1263703965177544</v>
+        <v>0.1263703965175721</v>
       </c>
     </row>
     <row r="19">
@@ -1619,7 +1619,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1263616571835028</v>
+        <v>0.1263616571833292</v>
       </c>
     </row>
     <row r="20">
@@ -1632,7 +1632,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15230298861146</v>
+        <v>0.152302988471491</v>
       </c>
     </row>
     <row r="21">
@@ -1645,7 +1645,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1397077048846123</v>
+        <v>0.1397077047286874</v>
       </c>
     </row>
     <row r="22">
@@ -1658,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1385627698634409</v>
+        <v>0.1385590619189268</v>
       </c>
     </row>
     <row r="23">
@@ -1671,7 +1671,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1377053864982247</v>
+        <v>0.1377053864398917</v>
       </c>
     </row>
     <row r="24">
@@ -1684,7 +1684,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1299489165904829</v>
+        <v>0.1299491696990045</v>
       </c>
     </row>
     <row r="25">
@@ -1697,7 +1697,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.128842137470215</v>
+        <v>0.1288421374682414</v>
       </c>
     </row>
     <row r="26">
@@ -1710,7 +1710,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1284608560599796</v>
+        <v>0.1284608560583844</v>
       </c>
     </row>
     <row r="27">
@@ -1723,7 +1723,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1271903158752617</v>
+        <v>0.1271903158747058</v>
       </c>
     </row>
     <row r="28">
@@ -1736,7 +1736,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1271021899067285</v>
+        <v>0.1271021899062714</v>
       </c>
     </row>
     <row r="29">
@@ -1749,7 +1749,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1268433945658093</v>
+        <v>0.1268433945654905</v>
       </c>
     </row>
     <row r="30">
@@ -1762,7 +1762,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1266993066987544</v>
+        <v>0.1266993066984576</v>
       </c>
     </row>
     <row r="31">
@@ -1775,7 +1775,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1266344507020842</v>
+        <v>0.1266344507015868</v>
       </c>
     </row>
     <row r="32">
@@ -1788,7 +1788,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.126554989224551</v>
+        <v>0.1265549892237746</v>
       </c>
     </row>
     <row r="33">
@@ -1801,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1265395344219397</v>
+        <v>0.1265680977718902</v>
       </c>
     </row>
     <row r="34">
@@ -1814,7 +1814,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1265356943660078</v>
+        <v>0.1265356943657789</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1863,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.119950417003425e-09</v>
+        <v>-4.119950435041541e-09</v>
       </c>
     </row>
     <row r="3">
@@ -1876,7 +1876,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6339526006251947</v>
+        <v>-0.5665670736957668</v>
       </c>
     </row>
     <row r="4">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.921537474185495</v>
+        <v>-2.921537476415257</v>
       </c>
     </row>
     <row r="5">
@@ -1902,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.157863950430834</v>
+        <v>-4.187321473247925</v>
       </c>
     </row>
     <row r="6">
@@ -1915,7 +1915,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.400132383238849</v>
+        <v>-5.40013238500418</v>
       </c>
     </row>
     <row r="7">
@@ -1928,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.102578228991453</v>
+        <v>-8.102578230958938</v>
       </c>
     </row>
     <row r="8">
@@ -1941,7 +1941,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.468646175213497</v>
+        <v>-8.468646177228722</v>
       </c>
     </row>
     <row r="9">
@@ -1954,7 +1954,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-9.471178871472155</v>
+        <v>-9.471178873548881</v>
       </c>
     </row>
     <row r="10">
@@ -1967,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.6390275094144</v>
+        <v>-10.63902751157556</v>
       </c>
     </row>
     <row r="11">
@@ -1980,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.7351363608159</v>
+        <v>-11.73513636305667</v>
       </c>
     </row>
     <row r="12">
@@ -1993,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.91886754842912</v>
+        <v>-11.91886755068148</v>
       </c>
     </row>
     <row r="13">
@@ -2006,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.24170145540772</v>
+        <v>-12.2417014576805</v>
       </c>
     </row>
     <row r="14">
@@ -2019,7 +2019,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.40435767582694</v>
+        <v>-13.40435767818706</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.79370232185605</v>
+        <v>-13.79370232425054</v>
       </c>
     </row>
     <row r="16">
@@ -2045,7 +2045,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.08162794932826</v>
+        <v>-14.08162795174533</v>
       </c>
     </row>
     <row r="17">
@@ -2058,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-14.36265292002905</v>
+        <v>-14.36265292246703</v>
       </c>
     </row>
     <row r="18">
@@ -2071,7 +2071,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.7259378686441</v>
+        <v>-14.72593787111438</v>
       </c>
     </row>
     <row r="19">
@@ -2084,7 +2084,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.84558379968756</v>
+        <v>-14.84558380216693</v>
       </c>
     </row>
     <row r="20">
@@ -2097,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.7065670864178187</v>
+        <v>-0.7065670894076508</v>
       </c>
     </row>
     <row r="21">
@@ -2110,7 +2110,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.214547715970082</v>
+        <v>-1.214547719008311</v>
       </c>
     </row>
     <row r="22">
@@ -2123,7 +2123,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.308545442284708</v>
+        <v>-1.30854173754819</v>
       </c>
     </row>
     <row r="23">
@@ -2136,7 +2136,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.390292587730846</v>
+        <v>-1.390292590893602</v>
       </c>
     </row>
     <row r="24">
@@ -2149,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.498245472082757</v>
+        <v>-3.498245727572194</v>
       </c>
     </row>
     <row r="25">
@@ -2162,7 +2162,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-4.551306156388129</v>
+        <v>-4.55130615884678</v>
       </c>
     </row>
     <row r="26">
@@ -2175,7 +2175,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.084384905095907</v>
+        <v>-5.08438490759543</v>
       </c>
     </row>
     <row r="27">
@@ -2188,7 +2188,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-8.409062653824483</v>
+        <v>-8.409062655812098</v>
       </c>
     </row>
     <row r="28">
@@ -2201,7 +2201,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-8.813052811674471</v>
+        <v>-8.813052813688888</v>
       </c>
     </row>
     <row r="29">
@@ -2214,7 +2214,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.26527288541588</v>
+        <v>-10.26527288754077</v>
       </c>
     </row>
     <row r="30">
@@ -2227,7 +2227,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-11.3058097994968</v>
+        <v>-11.30580980170117</v>
       </c>
     </row>
     <row r="31">
@@ -2240,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-11.84724053967262</v>
+        <v>-11.84724054191323</v>
       </c>
     </row>
     <row r="32">
@@ -2253,7 +2253,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.58659185517766</v>
+        <v>-12.5865918574768</v>
       </c>
     </row>
     <row r="33">
@@ -2266,7 +2266,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-12.74136011519956</v>
+        <v>-12.74138868086233</v>
       </c>
     </row>
     <row r="34">
@@ -2279,7 +2279,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-12.78041352503496</v>
+        <v>-12.78041352735121</v>
       </c>
     </row>
   </sheetData>
@@ -2328,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.015154490400304e-09</v>
+        <v>2.015154489029466e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2341,7 +2341,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1713381107986954</v>
+        <v>0.1713381105974496</v>
       </c>
     </row>
     <row r="4">
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1646293795761071</v>
+        <v>0.1341670740759611</v>
       </c>
     </row>
     <row r="5">
@@ -2367,7 +2367,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1312730512092959</v>
+        <v>0.1312440325620238</v>
       </c>
     </row>
     <row r="6">
@@ -2380,7 +2380,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1297579793908322</v>
+        <v>0.1297579805489322</v>
       </c>
     </row>
     <row r="7">
@@ -2393,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1281570099202661</v>
+        <v>0.1281570099186415</v>
       </c>
     </row>
     <row r="8">
@@ -2406,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1280600434844344</v>
+        <v>0.1280600427486737</v>
       </c>
     </row>
     <row r="9">
@@ -2419,7 +2419,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1278483968919601</v>
+        <v>0.1278483968906493</v>
       </c>
     </row>
     <row r="10">
@@ -2432,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1276398941920774</v>
+        <v>0.1276398941909458</v>
       </c>
     </row>
     <row r="11">
@@ -2445,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1274698024300897</v>
+        <v>0.1274698024291122</v>
       </c>
     </row>
     <row r="12">
@@ -2458,7 +2458,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1274431391402702</v>
+        <v>0.127443139139315</v>
       </c>
     </row>
     <row r="13">
@@ -2471,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1273992071098467</v>
+        <v>0.1273992071089275</v>
       </c>
     </row>
     <row r="14">
@@ -2484,7 +2484,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1272581661288383</v>
+        <v>0.1272581661280386</v>
       </c>
     </row>
     <row r="15">
@@ -2497,7 +2497,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1272169252426</v>
+        <v>0.1272169252418281</v>
       </c>
     </row>
     <row r="16">
@@ -2510,7 +2510,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1271943891169205</v>
+        <v>0.1271943891161718</v>
       </c>
     </row>
     <row r="17">
@@ -2523,7 +2523,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127169969073421</v>
+        <v>0.1271699690726804</v>
       </c>
     </row>
     <row r="18">
@@ -2536,7 +2536,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1271378353404484</v>
+        <v>0.127137835339742</v>
       </c>
     </row>
     <row r="19">
@@ -2549,7 +2549,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1271264021758648</v>
+        <v>0.1271264021751602</v>
       </c>
     </row>
     <row r="20">
@@ -2562,7 +2562,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1675763395880952</v>
+        <v>0.159056926817256</v>
       </c>
     </row>
     <row r="21">
@@ -2575,7 +2575,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1520070033382697</v>
+        <v>0.1520069857686721</v>
       </c>
     </row>
     <row r="22">
@@ -2588,7 +2588,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1502796131187216</v>
+        <v>0.1502796129686799</v>
       </c>
     </row>
     <row r="23">
@@ -2601,7 +2601,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1492608576267713</v>
+        <v>0.1470427262778121</v>
       </c>
     </row>
     <row r="24">
@@ -2614,7 +2614,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1329662968102996</v>
+        <v>0.140446848614984</v>
       </c>
     </row>
     <row r="25">
@@ -2627,7 +2627,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1314367939329726</v>
+        <v>0.1314367923925312</v>
       </c>
     </row>
     <row r="26">
@@ -2640,7 +2640,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1308817264484108</v>
+        <v>0.1308819905917603</v>
       </c>
     </row>
     <row r="27">
@@ -2653,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1280044603406706</v>
+        <v>0.1280044603392047</v>
       </c>
     </row>
     <row r="28">
@@ -2666,7 +2666,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1278196584625835</v>
+        <v>0.1278196557797165</v>
       </c>
     </row>
     <row r="29">
@@ -2679,7 +2679,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1272992516233471</v>
+        <v>0.1272992516225053</v>
       </c>
     </row>
     <row r="30">
@@ -2692,7 +2692,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1270278001520784</v>
+        <v>0.1270278001514299</v>
       </c>
     </row>
     <row r="31">
@@ -2705,7 +2705,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1269030752456091</v>
+        <v>0.1269030752450415</v>
       </c>
     </row>
     <row r="32">
@@ -2718,7 +2718,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1268441394504117</v>
+        <v>0.1268441394498848</v>
       </c>
     </row>
     <row r="33">
@@ -2731,7 +2731,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1268319578640165</v>
+        <v>0.1268319578635569</v>
       </c>
     </row>
     <row r="34">
@@ -2744,7 +2744,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1268280501679962</v>
+        <v>0.1268280501674764</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.3125316820389e-09</v>
+        <v>-3.312531685743022e-09</v>
       </c>
     </row>
     <row r="3">
@@ -2806,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4662569861567061</v>
+        <v>-0.4662569869712461</v>
       </c>
     </row>
     <row r="4">
@@ -2819,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.927741218752214</v>
+        <v>-1.897278916116309</v>
       </c>
     </row>
     <row r="5">
@@ -2832,7 +2832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.76430358567711</v>
+        <v>-2.764274569951476</v>
       </c>
     </row>
     <row r="6">
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.643014250581803</v>
+        <v>-3.643014254717505</v>
       </c>
     </row>
     <row r="7">
@@ -2858,7 +2858,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>-5.610900893324473</v>
+        <v>-5.610900896446714</v>
       </c>
     </row>
     <row r="8">
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.803286249499917</v>
+        <v>-5.803286251912412</v>
       </c>
     </row>
     <row r="9">
@@ -2884,7 +2884,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.273957784615997</v>
+        <v>-6.273957787791868</v>
       </c>
     </row>
     <row r="10">
@@ -2897,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.820724489149201</v>
+        <v>-6.820724492364903</v>
       </c>
     </row>
     <row r="11">
@@ -2910,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.344418302492186</v>
+        <v>-7.344418305746062</v>
       </c>
     </row>
     <row r="12">
@@ -2923,7 +2923,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.43403145566637</v>
+        <v>-7.434031458925906</v>
       </c>
     </row>
     <row r="13">
@@ -2936,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>-7.586637529679538</v>
+        <v>-7.586637532948747</v>
       </c>
     </row>
     <row r="14">
@@ -2949,7 +2949,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.122736052576386</v>
+        <v>-8.122736055885989</v>
       </c>
     </row>
     <row r="15">
@@ -2962,7 +2962,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.294361924739588</v>
+        <v>-8.294361928064287</v>
       </c>
     </row>
     <row r="16">
@@ -2975,7 +2975,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>-8.391296442279746</v>
+        <v>-8.391296445612031</v>
       </c>
     </row>
     <row r="17">
@@ -2988,7 +2988,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.498965030860978</v>
+        <v>-8.498965034201213</v>
       </c>
     </row>
     <row r="18">
@@ -3001,7 +3001,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.644991784051822</v>
+        <v>-8.644991787404905</v>
       </c>
     </row>
     <row r="19">
@@ -3014,7 +3014,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>-8.698184120619905</v>
+        <v>-8.698184123976977</v>
       </c>
     </row>
     <row r="20">
@@ -3027,7 +3027,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.4961391983426915</v>
+        <v>-0.4876197878126624</v>
       </c>
     </row>
     <row r="21">
@@ -3040,7 +3040,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7130079759502813</v>
+        <v>-0.7130079619831181</v>
       </c>
     </row>
     <row r="22">
@@ -3053,7 +3053,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.7536416481555456</v>
+        <v>-0.7536416519802295</v>
       </c>
     </row>
     <row r="23">
@@ -3066,7 +3066,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7893711232711281</v>
+        <v>-0.7871529965387722</v>
       </c>
     </row>
     <row r="24">
@@ -3079,7 +3079,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.177981917957133</v>
+        <v>-2.185462472200015</v>
       </c>
     </row>
     <row r="25">
@@ -3092,7 +3092,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>-2.681444192854212</v>
+        <v>-2.681444193790248</v>
       </c>
     </row>
     <row r="26">
@@ -3105,7 +3105,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.935416977874107</v>
+        <v>-2.935417244513284</v>
       </c>
     </row>
     <row r="27">
@@ -3118,7 +3118,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>-5.919774881166286</v>
+        <v>-5.91977488430893</v>
       </c>
     </row>
     <row r="28">
@@ -3131,7 +3131,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.343960143667984</v>
+        <v>-6.343960144157101</v>
       </c>
     </row>
     <row r="29">
@@ -3144,7 +3144,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>-7.958780593712624</v>
+        <v>-7.958780597006967</v>
       </c>
     </row>
     <row r="30">
@@ -3157,7 +3157,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>-9.186059789606338</v>
+        <v>-9.186059792995129</v>
       </c>
     </row>
     <row r="31">
@@ -3170,7 +3170,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.888905080594823</v>
+        <v>-9.88890508403137</v>
       </c>
     </row>
     <row r="32">
@@ -3183,7 +3183,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>-10.26039664191836</v>
+        <v>-10.26039664538482</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>-10.34073450664401</v>
+        <v>-10.34073451011732</v>
       </c>
     </row>
     <row r="34">
@@ -3209,7 +3209,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.36677635933058</v>
+        <v>-10.36677636280623</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.690910443294938</v>
+        <v>-4.690910446484825</v>
       </c>
     </row>
     <row r="3">
@@ -3271,7 +3271,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.488683584140906e-09</v>
+        <v>1.488683829439234e-09</v>
       </c>
     </row>
     <row r="4">
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>8.807541417270247e-09</v>
+        <v>8.807541609581481e-09</v>
       </c>
     </row>
     <row r="5">
@@ -3297,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.308923446596083e-08</v>
+        <v>1.308923463575248e-08</v>
       </c>
     </row>
     <row r="6">
@@ -3310,7 +3310,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1.782678269573788e-08</v>
+        <v>1.782678284914454e-08</v>
       </c>
     </row>
     <row r="7">
@@ -3323,7 +3323,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>3.379494553329918e-08</v>
+        <v>3.379494566006761e-08</v>
       </c>
     </row>
     <row r="8">
@@ -3336,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>3.798205547482544e-08</v>
+        <v>3.798205559887268e-08</v>
       </c>
     </row>
     <row r="9">
@@ -3349,7 +3349,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>4.484073338081586e-08</v>
+        <v>4.48407335026561e-08</v>
       </c>
     </row>
     <row r="10">
@@ -3362,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.628303721485875e-08</v>
+        <v>5.628303733752295e-08</v>
       </c>
     </row>
     <row r="11">
@@ -3375,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>7.101255690474226e-08</v>
+        <v>7.101255703421356e-08</v>
       </c>
     </row>
     <row r="12">
@@ -3388,7 +3388,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>7.368230110532854e-08</v>
+        <v>7.368230123657337e-08</v>
       </c>
     </row>
     <row r="13">
@@ -3401,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>7.873306547980695e-08</v>
+        <v>7.873306561480053e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3414,7 +3414,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>1.066576572494854e-07</v>
+        <v>1.066576574132377e-07</v>
       </c>
     </row>
     <row r="15">
@@ -3427,7 +3427,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.216097672467892e-07</v>
+        <v>1.216097674308413e-07</v>
       </c>
     </row>
     <row r="16">
@@ -3440,7 +3440,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>1.329053178813462e-07</v>
+        <v>1.329053180827978e-07</v>
       </c>
     </row>
     <row r="17">
@@ -3453,7 +3453,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>1.457603353551402e-07</v>
+        <v>1.457603355784662e-07</v>
       </c>
     </row>
     <row r="18">
@@ -3466,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>1.694928960311449e-07</v>
+        <v>1.694928963004699e-07</v>
       </c>
     </row>
     <row r="19">
@@ -3479,7 +3479,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>1.780204337819871e-07</v>
+        <v>1.78020434069585e-07</v>
       </c>
     </row>
     <row r="20">
@@ -3492,7 +3492,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>1.754322237119138e-09</v>
+        <v>1.754322482863222e-09</v>
       </c>
     </row>
     <row r="21">
@@ -3505,7 +3505,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>3.563026131888008e-09</v>
+        <v>3.563026365205921e-09</v>
       </c>
     </row>
     <row r="22">
@@ -3518,7 +3518,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>3.922009238983513e-09</v>
+        <v>3.922009470488267e-09</v>
       </c>
     </row>
     <row r="23">
@@ -3531,7 +3531,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>4.247826786180053e-09</v>
+        <v>4.247827017136627e-09</v>
       </c>
     </row>
     <row r="24">
@@ -3544,7 +3544,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>1.080906015197761e-08</v>
+        <v>1.080906033309405e-08</v>
       </c>
     </row>
     <row r="25">
@@ -3557,7 +3557,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>1.47959447819265e-08</v>
+        <v>1.479594494646742e-08</v>
       </c>
     </row>
     <row r="26">
@@ -3570,7 +3570,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>1.694977396797487e-08</v>
+        <v>1.694977412539722e-08</v>
       </c>
     </row>
     <row r="27">
@@ -3583,7 +3583,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>3.604590642655358e-08</v>
+        <v>3.604590655171317e-08</v>
       </c>
     </row>
     <row r="28">
@@ -3596,7 +3596,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>3.929864690509559e-08</v>
+        <v>3.929864702853004e-08</v>
       </c>
     </row>
     <row r="29">
@@ -3609,7 +3609,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>5.923168197012682e-08</v>
+        <v>5.923168209374519e-08</v>
       </c>
     </row>
     <row r="30">
@@ -3622,7 +3622,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>8.388048606271545e-08</v>
+        <v>8.388048620212529e-08</v>
       </c>
     </row>
     <row r="31">
@@ -3635,7 +3635,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1.000892450024982e-07</v>
+        <v>1.000892451585258e-07</v>
       </c>
     </row>
     <row r="32">
@@ -3648,7 +3648,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>1.271155604313545e-07</v>
+        <v>1.271155606240065e-07</v>
       </c>
     </row>
     <row r="33">
@@ -3661,7 +3661,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>1.348266630222255e-07</v>
+        <v>1.348266632272095e-07</v>
       </c>
     </row>
     <row r="34">
@@ -3674,7 +3674,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1.373869587187282e-07</v>
+        <v>1.37386958927973e-07</v>
       </c>
     </row>
   </sheetData>
@@ -3723,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.202395073371513e-13</v>
+        <v>4.667161251204725e-14</v>
       </c>
     </row>
     <row r="3">
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="3">
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.505903559159053e-14</v>
+        <v>2.505903559158908e-14</v>
       </c>
     </row>
     <row r="4">
@@ -3958,7 +3958,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158887e-14</v>
       </c>
     </row>
     <row r="5">
@@ -3971,7 +3971,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>2.505903559158936e-14</v>
+        <v>2.505903559160505e-14</v>
       </c>
     </row>
     <row r="6">
@@ -3997,7 +3997,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="8">
@@ -4010,7 +4010,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158895e-14</v>
       </c>
     </row>
     <row r="9">
@@ -4023,7 +4023,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="10">
@@ -4036,7 +4036,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="11">
@@ -4049,7 +4049,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="12">
@@ -4062,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="13">
@@ -4075,7 +4075,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="14">
@@ -4088,7 +4088,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="15">
@@ -4101,7 +4101,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="16">
@@ -4114,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="17">
@@ -4127,7 +4127,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="18">
@@ -4140,7 +4140,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="19">
@@ -4153,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="20">
@@ -4166,7 +4166,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="21">
@@ -4179,7 +4179,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>2.5059035591589e-14</v>
+        <v>2.505903559158764e-14</v>
       </c>
     </row>
     <row r="22">
@@ -4192,7 +4192,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="23">
@@ -4205,7 +4205,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>2.505903559159099e-14</v>
+        <v>2.505903559159092e-14</v>
       </c>
     </row>
     <row r="24">
@@ -4218,7 +4218,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="25">
@@ -4231,7 +4231,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="26">
@@ -4244,7 +4244,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="27">
@@ -4257,7 +4257,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="28">
@@ -4270,7 +4270,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="29">
@@ -4283,7 +4283,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="30">
@@ -4296,7 +4296,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="31">
@@ -4309,7 +4309,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="32">
@@ -4322,7 +4322,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559160597e-14</v>
       </c>
     </row>
     <row r="33">
@@ -4348,7 +4348,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="35">
@@ -4361,7 +4361,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="36">
@@ -4374,7 +4374,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="37">
@@ -4387,7 +4387,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
     <row r="38">
@@ -4400,7 +4400,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>2.505903559158897e-14</v>
+        <v>2.505903559158896e-14</v>
       </c>
     </row>
   </sheetData>

--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
@@ -1,19 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -32,80 +45,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -390,4 +336,16 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
+++ b/Optimal_Power_Flow/Distribution/33Bus_matpower/Output_data/Dual/33bus_NLP_Opt_problem_Dual_Variables.xlsx
@@ -1,38 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Constraint_list" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="P_bal_con" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Q_bal_con" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="P_gen_min_con" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="P_gen_max_con" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q_gen_min_con" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Q_gen_max_con" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="V_limits_con" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Slack_con" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,18 +55,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -339,13 +430,4138 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.4690937742065608</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.48868556591808e-09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.80754806562803e-09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.308924438450269e-08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.782679679892405e-08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.379498093238183e-08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.798210063311058e-08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.484079325648555e-08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.62831304256862e-08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.101270379617862e-08</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.368245858130822e-08</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.873324385619716e-08</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.066579812382313e-07</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.216101893611014e-07</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.329058234504572e-07</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.457609432899619e-07</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.69493721115558e-07</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.780213423193052e-07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.754326342305376e-09</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.563042144418125e-09</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.922027922358423e-09</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.2478479952422e-09</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.080906811262471e-08</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.479595510800127e-08</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.694978571264852e-08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.604594530617668e-08</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.929869104288088e-08</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5.923176668760275e-08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>8.388064082589029e-08</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.000894577317419e-07</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.271158966451491e-07</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.348270399735453e-07</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>V_limits_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.373873509193062e-07</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Slack_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.8948303560025e-14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Lines</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.672805854373664e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.04790681213942768</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2790630012711846</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4028678923545931</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5271865242244421</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7975321802417273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8341476508799122</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9344212177576885</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.051224897739147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.160850031311945</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.179225281827976</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.211512262850031</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.327789391267314</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.366727278931499</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.395522256804758</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.423627017984876</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.459958312857504</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.471923795885882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05542644739315473</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1074841035395003</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1169983820289327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1252588458717416</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3368298740327434</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4422466480460072</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4955926650264358</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8281879280090222</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8685957876567874</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.013843787601257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.117911966212326</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.17206156537946</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.24600470495594</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.261483090031527</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.26538882137851</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.297382104963412e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.02949199161124556</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1763115016204129</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2633034910612295</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.351326183181374</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5482752408133957</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5675235558085159</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.614611978267532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6693096706812915</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7216962216725312</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7306602252426435</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7459252627216668</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7995493875703432</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8167161677741563</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8264119214678598</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8371812655611036</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8517872251823485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8571076179688668</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.03285647124956049</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0561007501626014</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.06033693935213352</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06401183247702458</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2045019191936759</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2550011474870125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2804539574205846</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5791779196506046</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6216149574250562</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7831491716045518</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9059043253197109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9762013668176138</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.01335647533263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.021391493800011</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_bal_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.023996078263172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.396378766001275e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1966535962241048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2604879717609888</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3091602267353434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3658767824521276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5009006156032102</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.5189299572829802</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.5666695634347532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.6191043355849482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.6658881311080492</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.6736780947858209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.6874406999341897</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.7393298176085938</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7583980378942443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.7736468682375621</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7902619229996132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.8169473629720249</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.8274561696613363</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1981550745215009</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2095799027272739</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.2118666212356532</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2139027946331118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.2820258378093515</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.3260972781116308</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.3502972964754089</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.5161990042296768</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5360384478596102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.603140924388054</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.6470657548192053</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.669340306741955</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.7005892549156805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.7074852241007882</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.7092228436494409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.119951677628887e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.1966535962241048</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.2604879717609888</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.3091602267353434</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.3658767824521276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.5009006156032083</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.5189299572829802</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.5666695634347532</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.6191043355849482</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.6658881311080492</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.6736780947858209</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.6874406999341897</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.7393298176085938</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.7583980378942443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.7736468682375622</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.7902619229996133</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.8169473629720243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.8274561591392102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.1981550745215009</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.2095799027272738</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.2118666212356532</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2139027946331118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.2820258378093515</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.3260972781116308</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.3502972964754089</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.5161990042296747</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.5360384478596102</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.603140924388054</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.6470657548192048</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.669340306741955</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.7005892549156805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.7074852241007882</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>P_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.709222843649443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.015153166665181e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.01474599580562278</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.08815575081020643</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1316517455306148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.175663091590687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2741376204066979</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2837617779042579</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.307305989133766</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3346548353406458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3608481108362656</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3653301126213218</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3729626313608335</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3997746937851716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4083580838870782</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.41320596073393</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4185906327805519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.4258936125911743</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4285538089844334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.01642823562478024</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.02805037508130069</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.03016846967606675</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03200591623851229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.1022509595968379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.1275005737435062</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.1402269787102923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.2895889598253023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.3108074787125281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.3915745858022758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4529521626598554</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.4881006834088069</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.5066782376663148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.5106957469000056</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_min_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.5119980391315861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Constraint_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Gens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Index: Buses</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-3.312535271628593e-09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-0.01474599580562278</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.08815575081020643</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.1316517455306148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.175663091590687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.2741376204066979</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2837617779042579</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.307305989133766</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.3346548353406458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.3608481108362656</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.3653301126213218</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3729626313608335</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3997746937851716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.4083580838870782</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>15</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.41320596073393</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.4185906327805519</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.4258936125911743</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>18</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4285538089844334</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>19</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.01642823562478025</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.0280503750813007</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.03016846967606676</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>22</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.03200591623851229</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.1022509595968379</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.1275005737435062</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.1402269787102923</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.2895889598253023</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>27</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.3108074787125281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.3915745858022758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>29</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.4529521626598554</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>30</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.4881006834088069</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>31</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.5066782376663148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>32</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.5106957469000056</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q_gen_max_con</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.5119980391315861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>